--- a/Output/2_Protamine_Ann (Table S1).xlsx
+++ b/Output/2_Protamine_Ann (Table S1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>Hits</t>
   </si>
@@ -31,7 +31,10 @@
     <t>Cluster - Protein (Revised)</t>
   </si>
   <si>
-    <t>Cluster - m (Da)</t>
+    <t>Cluster - m (Da) (mean)</t>
+  </si>
+  <si>
+    <t>Cluster - m (Da) (std)</t>
   </si>
   <si>
     <t>Cluster - Δm (Da) (Auto)</t>
@@ -617,15 +620,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -657,10 +660,13 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>449</v>
@@ -672,30 +678,33 @@
         <v>0.991</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>7029.4532414408</v>
+        <v>7029.453241440796</v>
       </c>
       <c r="H2">
-        <v>-0.142463559203263</v>
+        <v>1.392800238234331</v>
       </c>
       <c r="I2">
-        <v>-0.1424635591993137</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
+        <v>-0.142463559203275</v>
+      </c>
+      <c r="J2">
+        <v>-0.1424635592038612</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>249</v>
@@ -707,30 +716,33 @@
         <v>0.984</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>7090.91560447102</v>
+        <v>7090.915604471015</v>
       </c>
       <c r="H3">
+        <v>1.922543576679108</v>
+      </c>
+      <c r="I3">
         <v>61.3198994710154</v>
       </c>
-      <c r="I3">
-        <v>61.31989947102011</v>
-      </c>
-      <c r="J3" t="s">
-        <v>49</v>
+      <c r="J3">
+        <v>61.31989947101556</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>141</v>
@@ -742,30 +754,33 @@
         <v>0.972</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>7108.86154497139</v>
+        <v>7108.861544971389</v>
       </c>
       <c r="H4">
-        <v>79.26583997139041</v>
+        <v>1.583310337264635</v>
       </c>
       <c r="I4">
-        <v>79.26583997139005</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
+        <v>79.26583997139038</v>
+      </c>
+      <c r="J4">
+        <v>79.26583997138914</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>108</v>
@@ -777,30 +792,33 @@
         <v>0.923</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>7151.59124359702</v>
+        <v>7151.591243597022</v>
       </c>
       <c r="H5">
-        <v>121.995538597022</v>
+        <v>1.557105153110436</v>
       </c>
       <c r="I5">
-        <v>121.9955385970206</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
+        <v>121.9955385970223</v>
+      </c>
+      <c r="J5">
+        <v>121.9955385970225</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>83</v>
@@ -812,30 +830,33 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>7170.38813373722</v>
       </c>
       <c r="H6">
+        <v>1.666525517055069</v>
+      </c>
+      <c r="I6">
         <v>140.792428737219</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>140.7924287372207</v>
       </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
       <c r="K6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>104</v>
@@ -847,30 +868,33 @@
         <v>0.99</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>7212.91417786781</v>
+        <v>7212.914177867806</v>
       </c>
       <c r="H7">
-        <v>183.318472867807</v>
+        <v>1.848074393256048</v>
       </c>
       <c r="I7">
-        <v>183.3184728678107</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
+        <v>183.3184728678071</v>
+      </c>
+      <c r="J7">
+        <v>183.3184728678061</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="L7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -882,30 +906,33 @@
         <v>0.98</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>7231.82364270327</v>
+        <v>7231.823642703273</v>
       </c>
       <c r="H8">
-        <v>202.227937703276</v>
+        <v>1.66027701164532</v>
       </c>
       <c r="I8">
-        <v>202.2279377032701</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
+        <v>202.2279377032758</v>
+      </c>
+      <c r="J8">
+        <v>202.2279377032737</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>63</v>
@@ -917,30 +944,33 @@
         <v>0.887</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>7293.51965983649</v>
+        <v>7293.519659836493</v>
       </c>
       <c r="H9">
-        <v>263.923954836494</v>
+        <v>2.729214384955851</v>
       </c>
       <c r="I9">
-        <v>263.9239548364903</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
+        <v>263.9239548364942</v>
+      </c>
+      <c r="J9">
+        <v>263.9239548364931</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -952,30 +982,33 @@
         <v>0.917</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>7310.91851956099</v>
+        <v>7310.918519560986</v>
       </c>
       <c r="H10">
-        <v>281.322814560987</v>
+        <v>1.432297866961225</v>
       </c>
       <c r="I10">
-        <v>281.3228145609901</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
+        <v>281.3228145609873</v>
+      </c>
+      <c r="J10">
+        <v>281.3228145609864</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>57</v>
+      </c>
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>122</v>
@@ -987,30 +1020,33 @@
         <v>0.976</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11">
-        <v>7538.53591715508</v>
+        <v>7538.535917155079</v>
       </c>
       <c r="H11">
-        <v>-0.53299984492486</v>
+        <v>1.264822168106855</v>
       </c>
       <c r="I11">
-        <v>-0.5329998449224149</v>
-      </c>
-      <c r="J11" t="s">
-        <v>40</v>
+        <v>-0.5329998449249178</v>
+      </c>
+      <c r="J11">
+        <v>-0.5329998449233244</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -1022,30 +1058,33 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12">
-        <v>7599.6334300021</v>
+        <v>7599.633430002101</v>
       </c>
       <c r="H12">
+        <v>1.195407046264103</v>
+      </c>
+      <c r="I12">
         <v>60.5645130020994</v>
       </c>
-      <c r="I12">
-        <v>60.56451300209756</v>
-      </c>
-      <c r="J12" t="s">
-        <v>57</v>
+      <c r="J12">
+        <v>60.56451300209847</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>58</v>
+      </c>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>260</v>
@@ -1057,30 +1096,33 @@
         <v>0.996</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13">
-        <v>7932.72922897204</v>
+        <v>7932.729228972042</v>
       </c>
       <c r="H13">
-        <v>-0.547389027960876</v>
+        <v>1.076205308973178</v>
       </c>
       <c r="I13">
-        <v>-0.547389027963618</v>
-      </c>
-      <c r="J13" t="s">
-        <v>41</v>
+        <v>-0.5473890279608861</v>
+      </c>
+      <c r="J13">
+        <v>-0.547389027961799</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>42</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>115</v>
@@ -1092,30 +1134,33 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14">
-        <v>7994.03102579235</v>
+        <v>7994.031025792349</v>
       </c>
       <c r="H14">
-        <v>60.7544077923419</v>
+        <v>1.346733645758247</v>
       </c>
       <c r="I14">
-        <v>60.75440779234668</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
+        <v>60.75440779234189</v>
+      </c>
+      <c r="J14">
+        <v>60.75440779234577</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>59</v>
+      </c>
+      <c r="L14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -1127,30 +1172,33 @@
         <v>0.9379999999999999</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15">
         <v>8122.66104853312</v>
       </c>
       <c r="H15">
-        <v>60.341837533119</v>
+        <v>0.4862991802041621</v>
       </c>
       <c r="I15">
+        <v>60.34183753311896</v>
+      </c>
+      <c r="J15">
         <v>60.34183753311845</v>
       </c>
-      <c r="J15" t="s">
-        <v>59</v>
-      </c>
       <c r="K15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>60</v>
+      </c>
+      <c r="L15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>122</v>
@@ -1162,30 +1210,33 @@
         <v>0.992</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16">
-        <v>9002.09286824216</v>
+        <v>9002.092868242158</v>
       </c>
       <c r="H16">
-        <v>-0.655388757845293</v>
+        <v>1.098080081011764</v>
       </c>
       <c r="I16">
-        <v>-0.6553887578429567</v>
-      </c>
-      <c r="J16" t="s">
-        <v>43</v>
+        <v>-0.6553887578453524</v>
+      </c>
+      <c r="J16">
+        <v>-0.6553887578447757</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>39</v>
@@ -1197,30 +1248,33 @@
         <v>0.951</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17">
-        <v>9063.40354267138</v>
+        <v>9063.403542671384</v>
       </c>
       <c r="H17">
-        <v>60.6552856713816</v>
+        <v>1.986093385778866</v>
       </c>
       <c r="I17">
-        <v>60.65528567137699</v>
-      </c>
-      <c r="J17" t="s">
-        <v>60</v>
+        <v>60.65528567138165</v>
+      </c>
+      <c r="J17">
+        <v>60.65528567138062</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>61</v>
+      </c>
+      <c r="L17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>37</v>
@@ -1232,27 +1286,30 @@
         <v>0.881</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18">
-        <v>9172.07999645862</v>
-      </c>
-      <c r="I18">
-        <v>-128.8323645413802</v>
-      </c>
-      <c r="J18" t="s">
-        <v>61</v>
+        <v>9172.079996458617</v>
+      </c>
+      <c r="H18">
+        <v>1.093675575427767</v>
+      </c>
+      <c r="J18">
+        <v>-128.8323645413839</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>62</v>
+      </c>
+      <c r="L18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>27</v>
@@ -1264,30 +1321,33 @@
         <v>0.574</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19">
         <v>9283.32219152896</v>
       </c>
       <c r="H19">
-        <v>-17.5901694710398</v>
+        <v>1.268718106903672</v>
       </c>
       <c r="I19">
+        <v>-17.59016947103981</v>
+      </c>
+      <c r="J19">
         <v>-17.59016947104101</v>
       </c>
-      <c r="J19" t="s">
-        <v>62</v>
-      </c>
       <c r="K19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>63</v>
+      </c>
+      <c r="L19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>127</v>
@@ -1299,30 +1359,33 @@
         <v>0.852</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20">
-        <v>9301.16531140346</v>
+        <v>9301.165311403463</v>
       </c>
       <c r="H20">
-        <v>0.25295040346653</v>
+        <v>1.067033336098547</v>
       </c>
       <c r="I20">
-        <v>0.252950403459181</v>
-      </c>
-      <c r="J20" t="s">
-        <v>45</v>
+        <v>0.2529504034664813</v>
+      </c>
+      <c r="J20">
+        <v>0.2529504034628189</v>
       </c>
       <c r="K20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>46</v>
+      </c>
+      <c r="L20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>37</v>
@@ -1334,30 +1397,33 @@
         <v>0.902</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21">
         <v>9363.58697515273</v>
       </c>
       <c r="H21">
-        <v>62.674614152726</v>
+        <v>1.506620365601518</v>
       </c>
       <c r="I21">
+        <v>62.67461415272613</v>
+      </c>
+      <c r="J21">
         <v>62.67461415272919</v>
       </c>
-      <c r="J21" t="s">
-        <v>63</v>
-      </c>
       <c r="K21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -1369,30 +1435,33 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22">
-        <v>10653.9686367666</v>
+        <v>10653.96863676656</v>
       </c>
       <c r="H22">
-        <v>-0.488359233447227</v>
+        <v>1.007432571078325</v>
       </c>
       <c r="I22">
-        <v>-0.4883592334081186</v>
-      </c>
-      <c r="J22" t="s">
-        <v>46</v>
+        <v>-0.4883592334473785</v>
+      </c>
+      <c r="J22">
+        <v>-0.4883592334481364</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>47</v>
+      </c>
+      <c r="L22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>109</v>
@@ -1404,30 +1473,33 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23">
-        <v>13195.9740505956</v>
+        <v>13195.97405059561</v>
       </c>
       <c r="H23">
-        <v>-0.845862404398867</v>
+        <v>1.666805756286356</v>
       </c>
       <c r="I23">
-        <v>-0.8458624044051248</v>
-      </c>
-      <c r="J23" t="s">
-        <v>47</v>
+        <v>-0.8458624043989003</v>
+      </c>
+      <c r="J23">
+        <v>-0.8458624043942109</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>48</v>
+      </c>
+      <c r="L23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>49</v>
@@ -1439,30 +1511,33 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G24">
-        <v>13275.9412964366</v>
+        <v>13275.94129643662</v>
       </c>
       <c r="H24">
-        <v>79.1213834366133</v>
+        <v>1.802503509108829</v>
       </c>
       <c r="I24">
-        <v>79.12138343659535</v>
-      </c>
-      <c r="J24" t="s">
-        <v>64</v>
+        <v>79.12138343661331</v>
+      </c>
+      <c r="J24">
+        <v>79.12138343661536</v>
       </c>
       <c r="K24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>55</v>
@@ -1474,30 +1549,33 @@
         <v>0.965</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G25">
-        <v>13355.9203671742</v>
+        <v>13355.92036717417</v>
       </c>
       <c r="H25">
-        <v>159.10045417416</v>
+        <v>1.536460512645942</v>
       </c>
       <c r="I25">
-        <v>159.100454174195</v>
-      </c>
-      <c r="J25" t="s">
-        <v>65</v>
+        <v>159.1004541741602</v>
+      </c>
+      <c r="J25">
+        <v>159.1004541741659</v>
       </c>
       <c r="K25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>31</v>
@@ -1509,30 +1587,33 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G26">
-        <v>13435.641935144</v>
+        <v>13435.64193514399</v>
       </c>
       <c r="H26">
-        <v>238.822022143985</v>
+        <v>1.589211784794127</v>
       </c>
       <c r="I26">
-        <v>238.8220221439951</v>
-      </c>
-      <c r="J26" t="s">
-        <v>66</v>
+        <v>238.8220221439857</v>
+      </c>
+      <c r="J26">
+        <v>238.822022143986</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>67</v>
+      </c>
+      <c r="L26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>13</v>
@@ -1544,30 +1625,33 @@
         <v>0.929</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G27">
-        <v>13515.4997277332</v>
+        <v>13515.49972773321</v>
       </c>
       <c r="H27">
-        <v>318.679814733208</v>
+        <v>1.187069969662486</v>
       </c>
       <c r="I27">
-        <v>318.6798147331956</v>
-      </c>
-      <c r="J27" t="s">
-        <v>67</v>
+        <v>318.6798147332078</v>
+      </c>
+      <c r="J27">
+        <v>318.6798147332047</v>
       </c>
       <c r="K27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -1579,24 +1663,27 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28">
-        <v>13873.2224592857</v>
-      </c>
-      <c r="J28" t="s">
-        <v>48</v>
+        <v>13873.22245928571</v>
+      </c>
+      <c r="H28">
+        <v>0.7787503493604044</v>
       </c>
       <c r="K28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>49</v>
+      </c>
+      <c r="L28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>86</v>
@@ -1608,19 +1695,22 @@
         <v>0.331</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>10326.5418922173</v>
       </c>
-      <c r="J29" t="s">
-        <v>48</v>
+      <c r="H29">
+        <v>2896.421334586419</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="L29" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
